--- a/data/municipal_hospital/data.xlsx
+++ b/data/municipal_hospital/data.xlsx
@@ -1,45 +1,180 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\51481\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+  <si>
+    <t>#property</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>telephoneNumber</t>
+  </si>
+  <si>
+    <t>referenceObject</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>availableDate</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>availableDateNote</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>34.282668</t>
+  </si>
+  <si>
+    <t>134.040965</t>
+  </si>
+  <si>
+    <t>高松市立みんなの病院</t>
+  </si>
+  <si>
+    <t>高松市仏生山町甲847-1</t>
+  </si>
+  <si>
+    <t>087-813-7171</t>
+  </si>
+  <si>
+    <t>http://www.takamatsu-municipal-hospital.jp/</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>月火水木金</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>祝日及び年末年始(12/29～1/3)は利用不可</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>34.171554</t>
+  </si>
+  <si>
+    <t>134.08063</t>
+  </si>
+  <si>
+    <t>高松市民病院　塩江分院</t>
+  </si>
+  <si>
+    <t>高松市塩江町安原上東99-1</t>
+  </si>
+  <si>
+    <t>087-893-0031</t>
+  </si>
+  <si>
+    <t>http://tmh-shionoe.jpn.org/</t>
+  </si>
+  <si>
+    <t>08:40</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>34.339005</t>
+  </si>
+  <si>
+    <t>134.059464</t>
+  </si>
+  <si>
+    <t>高松市夜間急病診療所</t>
+  </si>
+  <si>
+    <t>高松市松島町一丁目16-20</t>
+  </si>
+  <si>
+    <t>087-839-2299</t>
+  </si>
+  <si>
+    <t>月火水木金土日</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>23:30</t>
+  </si>
+  <si>
+    <t>内科・小児科は毎日、耳鼻咽喉科は木曜日のみ、眼科は土曜日のみ</t>
+  </si>
+  <si>
+    <t>https://www.city.takamatsu.kagawa.jp/kurashi/kurashi/kyukyu/yakan/shinryojo.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -61,17 +196,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,167 +542,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="81" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>#property</v>
-      </c>
-      <c r="B1" t="str">
-        <v>latitude</v>
-      </c>
-      <c r="C1" t="str">
-        <v>longitude</v>
-      </c>
-      <c r="D1" t="str">
-        <v>name</v>
-      </c>
-      <c r="E1" t="str">
-        <v>address</v>
-      </c>
-      <c r="F1" t="str">
-        <v>telephoneNumber</v>
-      </c>
-      <c r="G1" t="str">
-        <v>referenceObject</v>
-      </c>
-      <c r="H1" t="str">
-        <v>note</v>
-      </c>
-      <c r="I1" t="str">
-        <v>availableDate</v>
-      </c>
-      <c r="J1" t="str">
-        <v>startTime</v>
-      </c>
-      <c r="K1" t="str">
-        <v>endTime</v>
-      </c>
-      <c r="L1" t="str">
-        <v>availableDateNote</v>
+    <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>34.282668</v>
-      </c>
-      <c r="C2" t="str">
-        <v>134.040965</v>
-      </c>
-      <c r="D2" t="str">
-        <v>高松市立みんなの病院</v>
-      </c>
-      <c r="E2" t="str">
-        <v>高松市仏生山町甲847-1</v>
-      </c>
-      <c r="F2" t="str">
-        <v>087-813-7171</v>
-      </c>
-      <c r="G2" t="str">
-        <v>http://www.takamatsu-municipal-hospital.jp/</v>
-      </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="J2" t="str">
-        <v>08:30</v>
-      </c>
-      <c r="K2" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="L2" t="str">
-        <v>祝日及び年末年始(12/29～1/3)は利用不可</v>
+    <row r="2" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>34.171554</v>
-      </c>
-      <c r="C3" t="str">
-        <v>134.08063</v>
-      </c>
-      <c r="D3" t="str">
-        <v>高松市民病院　塩江分院</v>
-      </c>
-      <c r="E3" t="str">
-        <v>高松市塩江町安原上東99-1</v>
-      </c>
-      <c r="F3" t="str">
-        <v>087-893-0031</v>
-      </c>
-      <c r="G3" t="str">
-        <v>http://tmh-shionoe.jpn.org/</v>
-      </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="J3" t="str">
-        <v>08:40</v>
-      </c>
-      <c r="K3" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="L3" t="str">
-        <v>祝日及び年末年始(12/29～1/3)は利用不可</v>
+    <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>34.339005</v>
-      </c>
-      <c r="C4" t="str">
-        <v>134.059464</v>
-      </c>
-      <c r="D4" t="str">
-        <v>高松市夜間急病診療所</v>
-      </c>
-      <c r="E4" t="str">
-        <v>高松市松島町一丁目16-20</v>
-      </c>
-      <c r="F4" t="str">
-        <v>087-839-2299</v>
-      </c>
-      <c r="G4" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kyukyu/yakan/shiryojo.html</v>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <v>月火水木金土日</v>
-      </c>
-      <c r="J4" t="str">
-        <v>19:30</v>
-      </c>
-      <c r="K4" t="str">
-        <v>23:30</v>
-      </c>
-      <c r="L4" t="str">
-        <v>内科・小児科は毎日、耳鼻咽喉科は木曜日のみ、眼科は土曜日のみ</v>
+    <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError sqref="A1:L3 A4:F4 H4:L4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>